--- a/Tables/Sum_Stat_Table_Types_Demo_transposed.xlsx
+++ b/Tables/Sum_Stat_Table_Types_Demo_transposed.xlsx
@@ -13,24 +13,27 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+  <si>
+    <t>nopart</t>
+  </si>
+  <si>
+    <t>noadjust</t>
+  </si>
+  <si>
+    <t>has_bought_only</t>
+  </si>
+  <si>
+    <t>has_sold_only</t>
+  </si>
+  <si>
+    <t>has_bought_and_sold</t>
+  </si>
   <si>
     <t>total</t>
   </si>
   <si>
-    <t>nopart</t>
-  </si>
-  <si>
-    <t>noadjust</t>
-  </si>
-  <si>
-    <t>has_bought_only</t>
-  </si>
-  <si>
-    <t>has_sold_only</t>
-  </si>
-  <si>
-    <t>has_bought_and_sold</t>
+    <t>PhF</t>
   </si>
   <si>
     <t>Female</t>
@@ -63,13 +66,7 @@
     <t>2</t>
   </si>
   <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>5+</t>
+    <t>3+</t>
   </si>
   <si>
     <t>College</t>
@@ -112,6 +109,24 @@
   </si>
   <si>
     <t>Owner</t>
+  </si>
+  <si>
+    <t>Financial Assets</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Funds</t>
+  </si>
+  <si>
+    <t>Bonds</t>
+  </si>
+  <si>
+    <t>Stocks</t>
+  </si>
+  <si>
+    <t>Other</t>
   </si>
 </sst>
 </file>
@@ -121,7 +136,183 @@
   <numFmts count="1">
     <numFmt numFmtId="166" formatCode="0.0"/>
   </numFmts>
-  <fonts count="139">
+  <fonts count="183">
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -687,7 +878,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="139">
+  <borders count="183">
     <border>
       <left/>
       <right/>
@@ -1661,11 +1852,319 @@
       <bottom style="none"/>
       <diagonal style="none"/>
     </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="139">
+  <cellXfs count="183">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
@@ -2216,6 +2715,182 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="166" fontId="138" fillId="0" borderId="138" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="139" fillId="0" borderId="139" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="140" fillId="0" borderId="140" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="141" fillId="0" borderId="141" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="142" fillId="0" borderId="142" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="143" fillId="0" borderId="143" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="144" fillId="0" borderId="144" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="145" fillId="0" borderId="145" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="146" fillId="0" borderId="146" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="147" fillId="0" borderId="147" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="148" fillId="0" borderId="148" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="149" fillId="0" borderId="149" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="150" fillId="0" borderId="150" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="151" fillId="0" borderId="151" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="152" fillId="0" borderId="152" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="153" fillId="0" borderId="153" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="154" fillId="0" borderId="154" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="155" fillId="0" borderId="155" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="156" fillId="0" borderId="156" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="157" fillId="0" borderId="157" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="158" fillId="0" borderId="158" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="159" fillId="0" borderId="159" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="160" fillId="0" borderId="160" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="161" fillId="0" borderId="161" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="162" fillId="0" borderId="162" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="163" fillId="0" borderId="163" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="164" fillId="0" borderId="164" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="165" fillId="0" borderId="165" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="166" fillId="0" borderId="166" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="167" fillId="0" borderId="167" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="168" fillId="0" borderId="168" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="169" fillId="0" borderId="169" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="170" fillId="0" borderId="170" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="171" fillId="0" borderId="171" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="172" fillId="0" borderId="172" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="173" fillId="0" borderId="173" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="174" fillId="0" borderId="174" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="175" fillId="0" borderId="175" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="176" fillId="0" borderId="176" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="177" fillId="0" borderId="177" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="178" fillId="0" borderId="178" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="179" fillId="0" borderId="179" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="180" fillId="0" borderId="180" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="181" fillId="0" borderId="181" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="182" fillId="0" borderId="182" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2228,7 +2903,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:N35"/>
+  <dimension ref="A2:P40"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="2">
@@ -2250,554 +2925,709 @@
       <c r="N2" t="s">
         <v>5</v>
       </c>
+      <c r="P2" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D3" s="1">
-        <v>48.326690647233079</v>
+        <v>54.927152828799052</v>
       </c>
       <c r="F3" s="2">
-        <v>54.927152828799052</v>
+        <v>50.29339244138594</v>
       </c>
       <c r="H3" s="3">
-        <v>50.29339244138594</v>
+        <v>29.931680488119277</v>
       </c>
       <c r="J3" s="4">
-        <v>29.931680488119277</v>
+        <v>33.515374569630765</v>
       </c>
       <c r="L3" s="5">
-        <v>29.323776877531937</v>
+        <v>28.574344841664761</v>
       </c>
       <c r="N3" s="6">
-        <v>28.574344841664761</v>
+        <v>48.442011266413672</v>
+      </c>
+      <c r="P3" s="7">
+        <v>46.720907092094421</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6">
       <c r="B6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" s="7">
-        <v>22.373749831317131</v>
-      </c>
-      <c r="F6" s="8">
+        <v>9</v>
+      </c>
+      <c r="D6" s="8">
         <v>23.246953749379902</v>
       </c>
-      <c r="H6" s="9">
+      <c r="F6" s="9">
         <v>15.764366779212521</v>
       </c>
-      <c r="J6" s="10">
+      <c r="H6" s="10">
         <v>27.618761164071181</v>
       </c>
-      <c r="L6" s="11">
-        <v>17.463903604445829</v>
-      </c>
-      <c r="N6" s="12">
+      <c r="J6" s="11">
+        <v>19.960227947287191</v>
+      </c>
+      <c r="L6" s="12">
         <v>29.824695705427551</v>
+      </c>
+      <c r="N6" s="13">
+        <v>22.42713967964697</v>
+      </c>
+      <c r="P6" s="14">
+        <v>12.177588045597076</v>
       </c>
     </row>
     <row r="7">
       <c r="B7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7" s="13">
-        <v>16.449014274154518</v>
-      </c>
-      <c r="F7" s="14">
+        <v>10</v>
+      </c>
+      <c r="D7" s="15">
         <v>16.535917633940382</v>
       </c>
-      <c r="H7" s="15">
+      <c r="F7" s="16">
         <v>17.76355919826112</v>
       </c>
-      <c r="J7" s="16">
+      <c r="H7" s="17">
         <v>16.421543051113797</v>
       </c>
-      <c r="L7" s="17">
-        <v>14.236002908486551</v>
-      </c>
-      <c r="N7" s="18">
+      <c r="J7" s="18">
+        <v>16.270924848628752</v>
+      </c>
+      <c r="L7" s="19">
         <v>8.6057312000816601</v>
+      </c>
+      <c r="N7" s="20">
+        <v>16.488266093089372</v>
+      </c>
+      <c r="P7" s="21">
+        <v>16.90666526556015</v>
       </c>
     </row>
     <row r="8">
       <c r="B8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D8" s="19">
-        <v>15.68169876131164</v>
-      </c>
-      <c r="F8" s="20">
+        <v>11</v>
+      </c>
+      <c r="D8" s="22">
         <v>14.853538656411281</v>
       </c>
-      <c r="H8" s="21">
+      <c r="F8" s="23">
         <v>14.488560701736301</v>
       </c>
-      <c r="J8" s="22">
+      <c r="H8" s="24">
         <v>17.27783881996919</v>
       </c>
-      <c r="L8" s="23">
-        <v>19.466084969357009</v>
-      </c>
-      <c r="N8" s="24">
+      <c r="J8" s="25">
+        <v>15.223198385373379</v>
+      </c>
+      <c r="L8" s="26">
         <v>26.053229222485903</v>
+      </c>
+      <c r="N8" s="27">
+        <v>15.601837468926691</v>
+      </c>
+      <c r="P8" s="28">
+        <v>16.72205775976181</v>
       </c>
     </row>
     <row r="9">
       <c r="B9" t="s">
-        <v>11</v>
-      </c>
-      <c r="D9" s="25">
-        <v>19.10088199514885</v>
-      </c>
-      <c r="F9" s="26">
+        <v>12</v>
+      </c>
+      <c r="D9" s="29">
         <v>18.879442663745792</v>
       </c>
-      <c r="H9" s="27">
+      <c r="F9" s="30">
         <v>21.379416995283389</v>
       </c>
-      <c r="J9" s="28">
+      <c r="H9" s="31">
         <v>18.103749900252289</v>
       </c>
-      <c r="L9" s="29">
-        <v>12.968733769606311</v>
-      </c>
-      <c r="N9" s="30">
+      <c r="J9" s="32">
+        <v>7.55372195179865</v>
+      </c>
+      <c r="L9" s="33">
         <v>15.873076628645791</v>
+      </c>
+      <c r="N9" s="34">
+        <v>19.025116798986819</v>
+      </c>
+      <c r="P9" s="35">
+        <v>18.532256782054901</v>
       </c>
     </row>
     <row r="10">
       <c r="B10" t="s">
-        <v>12</v>
-      </c>
-      <c r="D10" s="31">
-        <v>26.394655138067858</v>
-      </c>
-      <c r="F10" s="32">
+        <v>13</v>
+      </c>
+      <c r="D10" s="36">
         <v>26.484147296522657</v>
       </c>
-      <c r="H10" s="33">
+      <c r="F10" s="37">
         <v>30.604096325506667</v>
       </c>
-      <c r="J10" s="34">
+      <c r="H10" s="38">
         <v>20.578107064593549</v>
       </c>
-      <c r="L10" s="35">
-        <v>35.865274748104291</v>
-      </c>
-      <c r="N10" s="36">
+      <c r="J10" s="39">
+        <v>40.991926866912031</v>
+      </c>
+      <c r="L10" s="40">
         <v>19.643267243359112</v>
+      </c>
+      <c r="N10" s="41">
+        <v>26.457639959350139</v>
+      </c>
+      <c r="P10" s="42">
+        <v>35.661429166793823</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13">
       <c r="B13" t="s">
-        <v>14</v>
-      </c>
-      <c r="D13" s="37">
-        <v>25.012122922729159</v>
-      </c>
-      <c r="F13" s="38">
+        <v>15</v>
+      </c>
+      <c r="D13" s="43">
         <v>26.078488891041868</v>
       </c>
-      <c r="H13" s="39">
+      <c r="F13" s="44">
         <v>21.105140166842791</v>
       </c>
-      <c r="J13" s="40">
+      <c r="H13" s="45">
         <v>24.741116315043179</v>
       </c>
-      <c r="L13" s="41">
-        <v>38.584190298119871</v>
-      </c>
-      <c r="N13" s="42">
+      <c r="J13" s="46">
+        <v>29.805295025525353</v>
+      </c>
+      <c r="L13" s="47">
         <v>27.512822475694708</v>
+      </c>
+      <c r="N13" s="48">
+        <v>24.833181466159878</v>
+      </c>
+      <c r="P13" s="49">
+        <v>40.619632601737976</v>
       </c>
     </row>
     <row r="14">
       <c r="B14" t="s">
-        <v>15</v>
-      </c>
-      <c r="D14" s="43">
-        <v>37.821245094603277</v>
-      </c>
-      <c r="F14" s="44">
+        <v>16</v>
+      </c>
+      <c r="D14" s="50">
         <v>38.173245383863907</v>
       </c>
-      <c r="H14" s="45">
+      <c r="F14" s="51">
         <v>40.422218785707528</v>
       </c>
-      <c r="J14" s="46">
+      <c r="H14" s="52">
         <v>32.079172063273809</v>
       </c>
-      <c r="L14" s="47">
-        <v>35.122571933104815</v>
-      </c>
-      <c r="N14" s="48">
+      <c r="J14" s="53">
+        <v>40.143060667220695</v>
+      </c>
+      <c r="L14" s="54">
         <v>42.560412360611387</v>
+      </c>
+      <c r="N14" s="55">
+        <v>37.911496865293081</v>
+      </c>
+      <c r="P14" s="56">
+        <v>34.207740426063538</v>
       </c>
     </row>
     <row r="15">
       <c r="B15" t="s">
-        <v>16</v>
-      </c>
-      <c r="D15" s="49">
-        <v>15.683181687639362</v>
-      </c>
-      <c r="F15" s="50">
-        <v>16.039833825380288</v>
-      </c>
-      <c r="H15" s="51">
-        <v>12.859652740190899</v>
-      </c>
-      <c r="J15" s="52">
-        <v>19.42072665443095</v>
-      </c>
-      <c r="L15" s="53">
-        <v>5.7130985769190801</v>
-      </c>
-      <c r="N15" s="54">
-        <v>16.744494628594762</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="B16" t="s">
         <v>17</v>
       </c>
-      <c r="D16" s="55">
-        <v>14.960106810240301</v>
-      </c>
-      <c r="F16" s="56">
-        <v>13.356495872098289</v>
-      </c>
-      <c r="H16" s="57">
-        <v>18.08873940050001</v>
-      </c>
-      <c r="J16" s="58">
-        <v>17.140340431278432</v>
-      </c>
-      <c r="L16" s="59">
-        <v>11.901423080918249</v>
-      </c>
-      <c r="N16" s="60">
-        <v>11.621883691852309</v>
+      <c r="D15" s="57">
+        <v>35.748265725094221</v>
+      </c>
+      <c r="F15" s="58">
+        <v>38.47264104744967</v>
+      </c>
+      <c r="H15" s="59">
+        <v>43.179711621682998</v>
+      </c>
+      <c r="J15" s="60">
+        <v>30.051644307253948</v>
+      </c>
+      <c r="L15" s="61">
+        <v>29.92676516369389</v>
+      </c>
+      <c r="N15" s="62">
+        <v>37.25532166854704</v>
+      </c>
+      <c r="P15" s="63">
+        <v>25.172626972198486</v>
       </c>
     </row>
     <row r="17">
-      <c r="B17" t="s">
+      <c r="A17" t="s">
         <v>18</v>
       </c>
-      <c r="D17" s="61">
-        <v>6.2919575467850901</v>
-      </c>
-      <c r="F17" s="62">
-        <v>6.2161185075143699</v>
-      </c>
-      <c r="H17" s="63">
-        <v>7.1163775698686402</v>
-      </c>
-      <c r="J17" s="64">
-        <v>6.2294749894114005</v>
-      </c>
-      <c r="L17" s="65">
-        <v>8.6787161109379891</v>
-      </c>
-      <c r="N17" s="66">
-        <v>1.56038684324683</v>
+      <c r="D17" s="64">
+        <v>16.518962870863017</v>
+      </c>
+      <c r="F17" s="65">
+        <v>23.260908786308921</v>
+      </c>
+      <c r="H17" s="66">
+        <v>29.915107021625296</v>
+      </c>
+      <c r="J17" s="67">
+        <v>32.396414579128567</v>
+      </c>
+      <c r="L17" s="68">
+        <v>33.765852662737004</v>
+      </c>
+      <c r="N17" s="69">
+        <v>21.171819993053251</v>
+      </c>
+      <c r="P17" s="70">
+        <v>21.824899315834045</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
         <v>19</v>
       </c>
-      <c r="D19" s="67">
-        <v>21.158590567501079</v>
-      </c>
-      <c r="F19" s="68">
-        <v>16.518962870863017</v>
-      </c>
-      <c r="H19" s="69">
-        <v>23.260908786308921</v>
-      </c>
-      <c r="J19" s="70">
-        <v>29.915107021625296</v>
-      </c>
-      <c r="L19" s="71">
-        <v>30.297600498597689</v>
-      </c>
-      <c r="N19" s="72">
-        <v>33.765852662737004</v>
+    </row>
+    <row r="20">
+      <c r="B20" t="s">
+        <v>20</v>
+      </c>
+      <c r="D20" s="71">
+        <v>36.820362939579141</v>
+      </c>
+      <c r="F20" s="72">
+        <v>40.81290754916364</v>
+      </c>
+      <c r="H20" s="73">
+        <v>56.60145723738728</v>
+      </c>
+      <c r="J20" s="74">
+        <v>37.676599786299406</v>
+      </c>
+      <c r="L20" s="75">
+        <v>51.834698512337653</v>
+      </c>
+      <c r="N20" s="76">
+        <v>41.532277844090629</v>
+      </c>
+      <c r="P20" s="77">
+        <v>35.329577326774597</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="s">
-        <v>20</v>
+      <c r="B21" t="s">
+        <v>21</v>
+      </c>
+      <c r="D21" s="78">
+        <v>14.36490059036664</v>
+      </c>
+      <c r="F21" s="79">
+        <v>13.74283701469969</v>
+      </c>
+      <c r="H21" s="80">
+        <v>7.8490709651282007</v>
+      </c>
+      <c r="J21" s="81">
+        <v>3.1669238988483901</v>
+      </c>
+      <c r="L21" s="82">
+        <v>14.58572558626145</v>
+      </c>
+      <c r="N21" s="83">
+        <v>12.991109452876831</v>
+      </c>
+      <c r="P21" s="84">
+        <v>13.683240115642548</v>
       </c>
     </row>
     <row r="22">
       <c r="B22" t="s">
-        <v>21</v>
-      </c>
-      <c r="D22" s="73">
-        <v>41.634293561084462</v>
-      </c>
-      <c r="F22" s="74">
-        <v>36.820362939579141</v>
-      </c>
-      <c r="H22" s="75">
-        <v>40.81290754916364</v>
-      </c>
-      <c r="J22" s="76">
-        <v>56.60145723738728</v>
-      </c>
-      <c r="L22" s="77">
-        <v>43.518229978186355</v>
-      </c>
-      <c r="N22" s="78">
-        <v>51.834698512337653</v>
+        <v>22</v>
+      </c>
+      <c r="D22" s="85">
+        <v>25.797524245759739</v>
+      </c>
+      <c r="F22" s="86">
+        <v>27.634518071771609</v>
+      </c>
+      <c r="H22" s="87">
+        <v>18.30508682654947</v>
+      </c>
+      <c r="J22" s="88">
+        <v>34.948949305473107</v>
+      </c>
+      <c r="L22" s="89">
+        <v>20.615478833346089</v>
+      </c>
+      <c r="N22" s="90">
+        <v>24.96324715304792</v>
+      </c>
+      <c r="P22" s="91">
+        <v>30.819666385650635</v>
       </c>
     </row>
     <row r="23">
       <c r="B23" t="s">
-        <v>22</v>
-      </c>
-      <c r="D23" s="79">
-        <v>12.960182933791788</v>
-      </c>
-      <c r="F23" s="80">
-        <v>14.36490059036664</v>
-      </c>
-      <c r="H23" s="81">
-        <v>13.74283701469969</v>
-      </c>
-      <c r="J23" s="82">
-        <v>7.8490709651282007</v>
-      </c>
-      <c r="L23" s="83">
-        <v>2.7708528098057501</v>
-      </c>
-      <c r="N23" s="84">
-        <v>14.58572558626145</v>
+        <v>23</v>
+      </c>
+      <c r="D23" s="92">
+        <v>3.5395983425597701</v>
+      </c>
+      <c r="F23" s="93">
+        <v>3.6085552033127999</v>
+      </c>
+      <c r="H23" s="94">
+        <v>3.1682943447649299</v>
+      </c>
+      <c r="J23" s="95">
+        <v>6.8532589338715395</v>
+      </c>
+      <c r="L23" s="96">
+        <v>6.9024471152619391</v>
+      </c>
+      <c r="N23" s="97">
+        <v>3.6814782993453101</v>
+      </c>
+      <c r="P23" s="98">
+        <v>7.0989713072776794</v>
       </c>
     </row>
     <row r="24">
       <c r="B24" t="s">
-        <v>23</v>
-      </c>
-      <c r="D24" s="85">
-        <v>24.903819869927592</v>
-      </c>
-      <c r="F24" s="86">
-        <v>25.797524245759739</v>
-      </c>
-      <c r="H24" s="87">
-        <v>27.634518071771609</v>
-      </c>
-      <c r="J24" s="88">
-        <v>18.30508682654947</v>
-      </c>
-      <c r="L24" s="89">
-        <v>30.57806170146463</v>
-      </c>
-      <c r="N24" s="90">
-        <v>20.615478833346089</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="B25" t="s">
         <v>24</v>
       </c>
-      <c r="D25" s="91">
-        <v>3.7098862249490501</v>
-      </c>
-      <c r="F25" s="92">
-        <v>3.5395983425597701</v>
-      </c>
-      <c r="H25" s="93">
-        <v>3.6085552033127999</v>
-      </c>
-      <c r="J25" s="94">
-        <v>3.1682943447649299</v>
-      </c>
-      <c r="L25" s="95">
-        <v>7.9489976108860496</v>
-      </c>
-      <c r="N25" s="96">
-        <v>6.9024471152619391</v>
+      <c r="D24" s="99">
+        <v>19.477613881734701</v>
+      </c>
+      <c r="F24" s="100">
+        <v>14.201182161052259</v>
+      </c>
+      <c r="H24" s="101">
+        <v>14.076090626170121</v>
+      </c>
+      <c r="J24" s="102">
+        <v>17.354268075507541</v>
+      </c>
+      <c r="L24" s="103">
+        <v>6.0616499527928696</v>
+      </c>
+      <c r="N24" s="104">
+        <v>16.831887250639298</v>
+      </c>
+      <c r="P24" s="105">
+        <v>13.06854635477066</v>
       </c>
     </row>
     <row r="26">
-      <c r="B26" t="s">
+      <c r="A26" t="s">
         <v>25</v>
       </c>
-      <c r="D26" s="97">
-        <v>16.79181741024712</v>
-      </c>
-      <c r="F26" s="98">
-        <v>19.477613881734701</v>
-      </c>
-      <c r="H26" s="99">
-        <v>14.201182161052259</v>
-      </c>
-      <c r="J26" s="100">
-        <v>14.076090626170121</v>
-      </c>
-      <c r="L26" s="101">
-        <v>15.183857899657211</v>
-      </c>
-      <c r="N26" s="102">
-        <v>6.0616499527928696</v>
+    </row>
+    <row r="27">
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="D27" s="106">
+        <v>15.177652725186611</v>
+      </c>
+      <c r="F27" s="107">
+        <v>6.670704571423661</v>
+      </c>
+      <c r="H27" s="108">
+        <v>3.11796011319064</v>
+      </c>
+      <c r="J27" s="109">
+        <v>21.473940401282199</v>
+      </c>
+      <c r="L27" s="110">
+        <v>7.1499655515578393</v>
+      </c>
+      <c r="N27" s="111">
+        <v>11.061578794288609</v>
+      </c>
+      <c r="P27" s="112">
+        <v>18.132291734218597</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" t="s">
-        <v>26</v>
+      <c r="B28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" s="113">
+        <v>35.192885099633905</v>
+      </c>
+      <c r="F28" s="114">
+        <v>33.387458439650509</v>
+      </c>
+      <c r="H28" s="115">
+        <v>31.032895261830078</v>
+      </c>
+      <c r="J28" s="116">
+        <v>12.881396177134041</v>
+      </c>
+      <c r="L28" s="117">
+        <v>32.798744545663325</v>
+      </c>
+      <c r="N28" s="118">
+        <v>33.639346926560201</v>
+      </c>
+      <c r="P28" s="119">
+        <v>25.991690158843994</v>
       </c>
     </row>
     <row r="29">
       <c r="B29" t="s">
-        <v>27</v>
-      </c>
-      <c r="D29" s="103">
-        <v>11.035245698648611</v>
-      </c>
-      <c r="F29" s="104">
-        <v>15.177652725186611</v>
-      </c>
-      <c r="H29" s="105">
-        <v>6.670704571423661</v>
-      </c>
-      <c r="J29" s="106">
-        <v>3.11796011319064</v>
-      </c>
-      <c r="L29" s="107">
-        <v>18.788303729095247</v>
-      </c>
-      <c r="N29" s="108">
-        <v>7.1499655515578393</v>
+        <v>28</v>
+      </c>
+      <c r="D29" s="120">
+        <v>32.560411435584008</v>
+      </c>
+      <c r="F29" s="121">
+        <v>37.793070268134059</v>
+      </c>
+      <c r="H29" s="122">
+        <v>38.536685675000456</v>
+      </c>
+      <c r="J29" s="123">
+        <v>35.79484744152915</v>
+      </c>
+      <c r="L29" s="124">
+        <v>32.233534920513414</v>
+      </c>
+      <c r="N29" s="125">
+        <v>34.773668362723228</v>
+      </c>
+      <c r="P29" s="126">
+        <v>26.77111029624939</v>
       </c>
     </row>
     <row r="30">
       <c r="B30" t="s">
-        <v>28</v>
-      </c>
-      <c r="D30" s="109">
-        <v>33.717493637010278</v>
-      </c>
-      <c r="F30" s="110">
-        <v>35.192885099633905</v>
-      </c>
-      <c r="H30" s="111">
-        <v>33.387458439650509</v>
-      </c>
-      <c r="J30" s="112">
-        <v>31.032895261830078</v>
-      </c>
-      <c r="L30" s="113">
-        <v>19.582943803884913</v>
-      </c>
-      <c r="N30" s="114">
-        <v>32.798744545663325</v>
+        <v>29</v>
+      </c>
+      <c r="D30" s="127">
+        <v>10.140832182831549</v>
+      </c>
+      <c r="F30" s="128">
+        <v>16.220134539549992</v>
+      </c>
+      <c r="H30" s="129">
+        <v>18.871346931760293</v>
+      </c>
+      <c r="J30" s="130">
+        <v>26.804582690252882</v>
+      </c>
+      <c r="L30" s="131">
+        <v>17.702671668070121</v>
+      </c>
+      <c r="N30" s="132">
+        <v>13.524601738866751</v>
+      </c>
+      <c r="P30" s="133">
+        <v>17.525619268417358</v>
       </c>
     </row>
     <row r="31">
       <c r="B31" t="s">
-        <v>29</v>
-      </c>
-      <c r="D31" s="115">
-        <v>34.77071734583869</v>
-      </c>
-      <c r="F31" s="116">
-        <v>32.560411435584008</v>
-      </c>
-      <c r="H31" s="117">
-        <v>37.793070268134059</v>
-      </c>
-      <c r="J31" s="118">
-        <v>38.536685675000456</v>
-      </c>
-      <c r="L31" s="119">
-        <v>35.51210138153111</v>
-      </c>
-      <c r="N31" s="120">
-        <v>32.233534920513414</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="B32" t="s">
         <v>30</v>
       </c>
-      <c r="D32" s="121">
-        <v>13.492405192812551</v>
-      </c>
-      <c r="F32" s="122">
-        <v>10.140832182831549</v>
-      </c>
-      <c r="H32" s="123">
-        <v>16.220134539549992</v>
-      </c>
-      <c r="J32" s="124">
-        <v>18.871346931760293</v>
-      </c>
-      <c r="L32" s="125">
-        <v>23.452269658252831</v>
-      </c>
-      <c r="N32" s="126">
-        <v>17.702671668070121</v>
+      <c r="D31" s="134">
+        <v>6.9282185567639196</v>
+      </c>
+      <c r="F31" s="135">
+        <v>5.9286321812417802</v>
+      </c>
+      <c r="H31" s="136">
+        <v>8.44111201821854</v>
+      </c>
+      <c r="J31" s="137">
+        <v>3.0452332898017302</v>
+      </c>
+      <c r="L31" s="138">
+        <v>10.11508331419531</v>
+      </c>
+      <c r="N31" s="139">
+        <v>7.0008041775612204</v>
+      </c>
+      <c r="P31" s="140">
+        <v>11.57928928732872</v>
       </c>
     </row>
     <row r="33">
-      <c r="B33" t="s">
+      <c r="A33" t="s">
         <v>31</v>
       </c>
-      <c r="D33" s="127">
-        <v>6.9841381256898707</v>
-      </c>
-      <c r="F33" s="128">
-        <v>6.9282185567639196</v>
-      </c>
-      <c r="H33" s="129">
-        <v>5.9286321812417802</v>
-      </c>
-      <c r="J33" s="130">
-        <v>8.44111201821854</v>
-      </c>
-      <c r="L33" s="131">
-        <v>2.6643814272359001</v>
-      </c>
-      <c r="N33" s="132">
-        <v>10.11508331419531</v>
+      <c r="D33" s="141">
+        <v>47.418614894535096</v>
+      </c>
+      <c r="F33" s="142">
+        <v>66.72573176284611</v>
+      </c>
+      <c r="H33" s="143">
+        <v>65.270300961874881</v>
+      </c>
+      <c r="J33" s="144">
+        <v>43.565238038703555</v>
+      </c>
+      <c r="L33" s="145">
+        <v>51.878078032100852</v>
+      </c>
+      <c r="N33" s="146">
+        <v>54.863490487367272</v>
+      </c>
+      <c r="P33" s="147">
+        <v>43.947476148605347</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
         <v>32</v>
       </c>
-      <c r="D35" s="133">
-        <v>54.892544686749112</v>
-      </c>
-      <c r="F35" s="134">
-        <v>47.418614894535096</v>
-      </c>
-      <c r="H35" s="135">
-        <v>66.72573176284611</v>
-      </c>
-      <c r="J35" s="136">
-        <v>65.270300961874881</v>
-      </c>
-      <c r="L35" s="137">
-        <v>46.504622416121329</v>
-      </c>
-      <c r="N35" s="138">
-        <v>51.878078032100852</v>
+    </row>
+    <row r="36">
+      <c r="B36" t="s">
+        <v>33</v>
+      </c>
+      <c r="D36" s="148">
+        <v>0</v>
+      </c>
+      <c r="F36" s="149">
+        <v>100</v>
+      </c>
+      <c r="H36" s="150">
+        <v>93.015204620927989</v>
+      </c>
+      <c r="J36" s="151">
+        <v>100</v>
+      </c>
+      <c r="L36" s="152">
+        <v>97.161193191967143</v>
+      </c>
+      <c r="N36" s="153">
+        <v>43.528501232031729</v>
+      </c>
+      <c r="P36" s="154">
+        <v>30.318424105644226</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="B37" t="s">
+        <v>34</v>
+      </c>
+      <c r="D37" s="155">
+        <v>0</v>
+      </c>
+      <c r="F37" s="156">
+        <v>77.782932549807981</v>
+      </c>
+      <c r="H37" s="157">
+        <v>74.996777381515059</v>
+      </c>
+      <c r="J37" s="158">
+        <v>69.580315801970798</v>
+      </c>
+      <c r="L37" s="159">
+        <v>69.245196356120346</v>
+      </c>
+      <c r="N37" s="160">
+        <v>33.902302583823001</v>
+      </c>
+      <c r="P37" s="161">
+        <v>15.62303751707077</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="B38" t="s">
+        <v>35</v>
+      </c>
+      <c r="D38" s="162">
+        <v>0</v>
+      </c>
+      <c r="F38" s="163">
+        <v>47.226947429916585</v>
+      </c>
+      <c r="H38" s="164">
+        <v>54.469311464541988</v>
+      </c>
+      <c r="J38" s="165">
+        <v>47.830345482607143</v>
+      </c>
+      <c r="L38" s="166">
+        <v>81.934981755084323</v>
+      </c>
+      <c r="N38" s="167">
+        <v>23.668982083637442</v>
+      </c>
+      <c r="P38" s="168">
+        <v>3.1267359852790833</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="B39" t="s">
+        <v>36</v>
+      </c>
+      <c r="D39" s="169">
+        <v>0</v>
+      </c>
+      <c r="F39" s="170">
+        <v>28.473457219687791</v>
+      </c>
+      <c r="H39" s="171">
+        <v>15.103338632750399</v>
+      </c>
+      <c r="J39" s="172">
+        <v>13.02979935889825</v>
+      </c>
+      <c r="L39" s="173">
+        <v>21.874760774707187</v>
+      </c>
+      <c r="N39" s="174">
+        <v>10.0739714529353</v>
+      </c>
+      <c r="P39" s="175">
+        <v>10.850512981414795</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="B40" t="s">
+        <v>37</v>
+      </c>
+      <c r="D40" s="176">
+        <v>0</v>
+      </c>
+      <c r="F40" s="177">
+        <v>19.339415964328978</v>
+      </c>
+      <c r="H40" s="178">
+        <v>18.410972862483199</v>
+      </c>
+      <c r="J40" s="179">
+        <v>27.66532114448534</v>
+      </c>
+      <c r="L40" s="180">
+        <v>44.447421470310552</v>
+      </c>
+      <c r="N40" s="181">
+        <v>9.6217392532297197</v>
+      </c>
+      <c r="P40" s="182">
+        <v>15.300774574279785</v>
       </c>
     </row>
   </sheetData>
